--- a/biology/Médecine/Unité_commune_de_dispensation/Unité_commune_de_dispensation.xlsx
+++ b/biology/Médecine/Unité_commune_de_dispensation/Unité_commune_de_dispensation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_commune_de_dispensation</t>
+          <t>Unité_commune_de_dispensation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'unité commune de dispensation (UCD)[1] constitue une des trois codifications de tous les médicaments ayant une autorisation de mise sur le marché, qu'ils soient délivrés en officine de ville ou par les pharmacies hospitalières. Les deux autres sont la classification ATC, de l'Organisation mondiale de la santé (OMS) et la codification CIP.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'unité commune de dispensation (UCD) constitue une des trois codifications de tous les médicaments ayant une autorisation de mise sur le marché, qu'ils soient délivrés en officine de ville ou par les pharmacies hospitalières. Les deux autres sont la classification ATC, de l'Organisation mondiale de la santé (OMS) et la codification CIP.
 C'est une normalisation d'échange en vue d'une amélioration des circuits de distribution, elle est nommée : code UCD.
 Le code UCD représente, pour chaque forme galénique, la plus petite unité de dispensation (comprimé, flacon, etc.) contrairement aux médicaments délivrés en officine de ville, qui ont un code CIP correspondant à la marque et à la présentation du médicament (conditionnement).
 Exemple : Le code UCD de l'aspirine est 9157281.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_commune_de_dispensation</t>
+          <t>Unité_commune_de_dispensation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce n'est qu’après les années 1970 qu’une codification commune pour chaque entreprise fut créée avec l'essor de l'informatique et la recherche.
 Cette amélioration des circuits de distribution a conduit à proposer une codification simple et fiable utilisable par l'ensemble des partenaires
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_commune_de_dispensation</t>
+          <t>Unité_commune_de_dispensation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Rétrocession des médicaments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les établissements de santé peuvent disposer d'une pharmacie à usage intérieur, dont l'usage est principalement réservé aux patients de l'établissement. Celle-ci assure la gestion, l'approvisionnement, la préparation, le contrôle, la détention et la dispensation des médicaments et des dispositifs stériles.
 À titre dérogatoire et sous certaines conditions, la pharmacie à usage intérieur peut être autorisée, par l'Agence régionale de santé (ARS), à rétrocéder des médicaments achetés par l'établissement, à des patients en ambulatoires.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_commune_de_dispensation</t>
+          <t>Unité_commune_de_dispensation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Marge forfaitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La marge forfaitaire permet de prendre en compte les frais inhérents à la gestion et à la dispensation des médicaments rétrocédés. Elle est fixée par arrêté ministériel.
 L'Arrêté du 27 avril 2009 a fixé celle-ci :
